--- a/data/Dados.xlsx
+++ b/data/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="117">
   <si>
     <t>Ano</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Pev_Obito</t>
   </si>
   <si>
-    <t>calcular_eventos_e_consequencias</t>
-  </si>
-  <si>
     <t>Nev_Afmenor15_Tipico</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>Nev_Obito_NRelac</t>
+  </si>
+  <si>
+    <t>calcular_eventos</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1503,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2367,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -2513,30 +2513,19 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2544,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,130 +2562,130 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dados.xlsx
+++ b/data/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="Funcoes_Inputs" sheetId="11" r:id="rId6"/>
     <sheet name="Funcoes_Outputs" sheetId="12" r:id="rId7"/>
     <sheet name="Distribuições" sheetId="10" r:id="rId8"/>
-    <sheet name="Custos" sheetId="8" r:id="rId9"/>
-    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId10"/>
+    <sheet name="Categorias" sheetId="13" r:id="rId9"/>
+    <sheet name="Custos" sheetId="8" r:id="rId10"/>
+    <sheet name="Benefícios_Capturados" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista_de_Parâmetros!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parametros!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parametros!$A$1:$G$10</definedName>
     <definedName name="Ano_Inicial">Configs!$D$2:$D$2</definedName>
     <definedName name="Anos_a_Serem_Simulados">Configs!$A$2</definedName>
     <definedName name="CategoriaSAT">Configs!$C$2:$C$2</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="142">
   <si>
     <t>Ano</t>
   </si>
@@ -223,9 +224,6 @@
     <t>Iniciativa10</t>
   </si>
   <si>
-    <t>AnosDelay</t>
-  </si>
-  <si>
     <t>TodasIniciativas</t>
   </si>
   <si>
@@ -386,15 +384,92 @@
   </si>
   <si>
     <t>calcular_eventos</t>
+  </si>
+  <si>
+    <t>calcular_turnover</t>
+  </si>
+  <si>
+    <t>CustoMedSubstitu</t>
+  </si>
+  <si>
+    <t>NSubstituidos</t>
+  </si>
+  <si>
+    <t>DespesaTurnover</t>
+  </si>
+  <si>
+    <t>calcular_absenteismo</t>
+  </si>
+  <si>
+    <t>DiasMedAfast_Men15</t>
+  </si>
+  <si>
+    <t>DiasAbsenteismo</t>
+  </si>
+  <si>
+    <t>DespesaAbsenteismo</t>
+  </si>
+  <si>
+    <t>calcular_multas</t>
+  </si>
+  <si>
+    <t>DespesaMultas</t>
+  </si>
+  <si>
+    <t>Multas</t>
+  </si>
+  <si>
+    <t>Lei1</t>
+  </si>
+  <si>
+    <t>Lei2</t>
+  </si>
+  <si>
+    <t>Lei3</t>
+  </si>
+  <si>
+    <t>ProbMulta_Lei1</t>
+  </si>
+  <si>
+    <t>ProbMulta_Lei2</t>
+  </si>
+  <si>
+    <t>ProbMulta_Lei3</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei1</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei2</t>
+  </si>
+  <si>
+    <t>CustoMedioMulta_Lei3</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei1</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei2</t>
+  </si>
+  <si>
+    <t>Atendimento_Lei3</t>
+  </si>
+  <si>
+    <t>Crise</t>
+  </si>
+  <si>
+    <t>FatorCrise</t>
+  </si>
+  <si>
+    <t>FatorMultiplicativoMultas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -475,7 +550,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -893,6 +968,321 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -933,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -951,7 +1341,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>44</v>
@@ -1028,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,9 +1436,11 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,8 +1471,17 @@
       <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>Ano_Inicial</f>
         <v>2017</v>
@@ -1107,19 +1508,28 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H6" si="0">CategoriaSAT</f>
+        <f>CategoriaSAT</f>
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="14">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A6" si="1">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
+        <f t="shared" ref="A3:A6" si="0">IFERROR(IF(A2+1&lt;=Anos_a_Serem_Simulados+Ano_Inicial-1,A2+1,""),"")</f>
         <v>2018</v>
       </c>
       <c r="B3" s="2">
@@ -1127,7 +1537,7 @@
         <v>3015</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C6" si="2">B3*850</f>
+        <f t="shared" ref="C3:C6" si="1">B3*850</f>
         <v>2562750</v>
       </c>
       <c r="D3" s="4">
@@ -1135,30 +1545,39 @@
         <v>810</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E6" si="3">F3*C3</f>
+        <f t="shared" ref="E3:E6" si="2">F3*C3</f>
         <v>153765</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F6" si="4">G3*H3</f>
+        <f t="shared" ref="F3:F6" si="3">G3*H3</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
         <v>0.02</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H6" si="4">CategoriaSAT</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <v>8</v>
+      </c>
+      <c r="J3" s="14">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="B4" s="2">
@@ -1166,7 +1585,7 @@
         <v>3030</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2575500</v>
       </c>
       <c r="D4" s="4">
@@ -1174,30 +1593,39 @@
         <v>874.8</v>
       </c>
       <c r="E4" s="5">
+        <f t="shared" si="2"/>
+        <v>154530</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" si="3"/>
-        <v>154530</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="G4" s="6">
         <v>0.02</v>
       </c>
       <c r="H4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="14">
+        <v>8</v>
+      </c>
+      <c r="J4" s="14">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="B5" s="2">
@@ -1205,7 +1633,7 @@
         <v>3045</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2588250</v>
       </c>
       <c r="D5" s="4">
@@ -1213,30 +1641,39 @@
         <v>944.78</v>
       </c>
       <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>155295</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="3"/>
-        <v>155295</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="G5" s="6">
         <v>0.02</v>
       </c>
       <c r="H5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="14">
+        <v>8</v>
+      </c>
+      <c r="J5" s="14">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="B6" s="2">
@@ -1244,7 +1681,7 @@
         <v>3060</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2601000</v>
       </c>
       <c r="D6" s="4">
@@ -1252,52 +1689,61 @@
         <v>1020.36</v>
       </c>
       <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>156060</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="3"/>
-        <v>156060</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="G6" s="6">
         <v>0.02</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -1324,13 +1770,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,8 +1810,8 @@
         <v>42</v>
       </c>
       <c r="B4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <f>FALSE</f>
@@ -1478,7 +1924,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="b">
         <f>FALSE</f>
@@ -1500,25 +1946,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1538,258 +1982,206 @@
         <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="13">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="14">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14">
-        <f>D2*1.1</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>2E-3</v>
+      </c>
+      <c r="D4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>2E-3</v>
+      </c>
+      <c r="D5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="D4" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <f>D6*1.1</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
         <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>2E-3</v>
@@ -1797,569 +2189,326 @@
       <c r="D13">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15">
-        <v>2.0999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D15">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16">
-        <v>1E-3</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17">
-        <v>2.0999999999999999E-3</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>3.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20">
-        <v>0.4</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21">
-        <v>0.3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22">
-        <v>0.2</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23">
-        <v>0.1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24">
-        <v>0.4</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25">
-        <v>0.3</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26">
-        <v>0.2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27">
-        <v>0.1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="13">
-        <v>20</v>
-      </c>
-      <c r="D28" s="13">
-        <v>3</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="14">
-        <v>20</v>
-      </c>
-      <c r="D29" s="14">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D32">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="D33">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34">
-        <v>1E-3</v>
-      </c>
-      <c r="D34">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="D35">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D36">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37">
-        <v>0.4</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38">
-        <v>0.3</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39">
-        <v>0.2</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40">
-        <v>0.1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>42</v>
+        <v>137</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H27">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Iniciativa1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G10"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2367,33 +2516,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2405,10 +2554,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
       </c>
       <c r="C3" t="b">
         <f>TRUE</f>
@@ -2417,10 +2566,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="b">
         <f>TRUE</f>
@@ -2429,10 +2578,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE</f>
@@ -2441,10 +2590,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="b">
         <f>TRUE</f>
@@ -2453,10 +2602,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="b">
         <f>TRUE</f>
@@ -2465,10 +2614,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="b">
         <f>TRUE</f>
@@ -2477,10 +2626,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="b">
         <f>TRUE</f>
@@ -2489,10 +2638,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="b">
         <f>TRUE</f>
@@ -2501,10 +2650,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="b">
         <f>TRUE</f>
@@ -2513,12 +2662,504 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"ProbMulta_"&amp;D31</f>
+        <v>ProbMulta_Lei1</v>
+      </c>
+      <c r="C31" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"ProbMulta_"&amp;D32</f>
+        <v>ProbMulta_Lei2</v>
+      </c>
+      <c r="C32" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"ProbMulta_"&amp;D33</f>
+        <v>ProbMulta_Lei3</v>
+      </c>
+      <c r="C33" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"CustoMedioMulta_"&amp;D34</f>
+        <v>CustoMedioMulta_Lei1</v>
+      </c>
+      <c r="C34" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"CustoMedioMulta_"&amp;D35</f>
+        <v>CustoMedioMulta_Lei2</v>
+      </c>
+      <c r="C35" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"CustoMedioMulta_"&amp;D36</f>
+        <v>CustoMedioMulta_Lei3</v>
+      </c>
+      <c r="C36" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"Atendimento_"&amp;D37</f>
+        <v>Atendimento_Lei1</v>
+      </c>
+      <c r="C37" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ref="B38:B39" si="0">"Atendimento_"&amp;D38</f>
+        <v>Atendimento_Lei2</v>
+      </c>
+      <c r="C38" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Atendimento_Lei3</v>
+      </c>
+      <c r="C39" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2531,161 +3172,276 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
       <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>116</v>
       </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"NumeroMultas_"&amp;C24</f>
+        <v>NumeroMultas_Lei1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:B26" si="0">"NumeroMultas_"&amp;C25</f>
+        <v>NumeroMultas_Lei2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>NumeroMultas_Lei3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"ProbMultaAjustada_"&amp;C27</f>
+        <v>ProbMultaAjustada_Lei1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"ProbMultaAjustada_"&amp;C28</f>
+        <v>ProbMultaAjustada_Lei2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"ProbMultaAjustada_"&amp;C29</f>
+        <v>ProbMultaAjustada_Lei3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2711,55 +3467,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2769,312 +3525,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D9" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="4">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D20" s="4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="4">
-        <v>150000</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dados.xlsx
+++ b/data/Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_de_Parâmetros" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
   <si>
     <t>Ano</t>
   </si>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,6 +2367,15 @@
       <c r="A24" t="s">
         <v>130</v>
       </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="G24" t="s">
         <v>43</v>
       </c>
@@ -2375,6 +2384,15 @@
       <c r="A25" t="s">
         <v>131</v>
       </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="G25" t="s">
         <v>43</v>
       </c>
@@ -2383,6 +2401,15 @@
       <c r="A26" t="s">
         <v>132</v>
       </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="G26" t="s">
         <v>43</v>
       </c>
@@ -2391,6 +2418,15 @@
       <c r="A27" t="s">
         <v>133</v>
       </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="G27" t="s">
         <v>43</v>
       </c>
@@ -2399,6 +2435,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="G28" t="s">
         <v>43</v>
       </c>
@@ -2407,6 +2452,15 @@
       <c r="A29" t="s">
         <v>135</v>
       </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="G29" t="s">
         <v>43</v>
       </c>
@@ -2415,6 +2469,15 @@
       <c r="A30" t="s">
         <v>136</v>
       </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
       <c r="G30" t="s">
         <v>43</v>
       </c>
@@ -2423,6 +2486,15 @@
       <c r="A31" t="s">
         <v>137</v>
       </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
       <c r="G31" t="s">
         <v>43</v>
       </c>
@@ -2431,6 +2503,15 @@
       <c r="A32" t="s">
         <v>138</v>
       </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
       <c r="G32" t="s">
         <v>43</v>
       </c>
@@ -2439,6 +2520,15 @@
       <c r="A33" t="s">
         <v>130</v>
       </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
@@ -2447,6 +2537,15 @@
       <c r="A34" t="s">
         <v>131</v>
       </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
@@ -2455,6 +2554,15 @@
       <c r="A35" t="s">
         <v>132</v>
       </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
@@ -2463,6 +2571,15 @@
       <c r="A36" t="s">
         <v>133</v>
       </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
@@ -2471,6 +2588,15 @@
       <c r="A37" t="s">
         <v>134</v>
       </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
@@ -2479,6 +2605,15 @@
       <c r="A38" t="s">
         <v>135</v>
       </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
@@ -2487,6 +2622,15 @@
       <c r="A39" t="s">
         <v>136</v>
       </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
@@ -2495,6 +2639,15 @@
       <c r="A40" t="s">
         <v>137</v>
       </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
@@ -2502,6 +2655,15 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2518,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
